--- a/e92_auctions.xlsx
+++ b/e92_auctions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kberman6/code/personal/car_price_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5283EE0-F1A0-4D87-96D5-08A690DDBA47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570AA42B-0AD2-0540-ADAF-E07F87878F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="5115" windowWidth="29040" windowHeight="15840" xr2:uid="{862242CE-A290-8C4C-AE6B-448C07778D99}"/>
+    <workbookView xWindow="23340" yWindow="4120" windowWidth="28800" windowHeight="18000" xr2:uid="{862242CE-A290-8C4C-AE6B-448C07778D99}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="13">
   <si>
     <t>white</t>
   </si>
@@ -433,15 +433,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E3D2202-5F88-3C40-B1B3-5783E8D19431}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -458,7 +458,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2011</v>
       </c>
@@ -475,7 +475,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2011</v>
       </c>
@@ -492,7 +492,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2008</v>
       </c>
@@ -509,7 +509,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2009</v>
       </c>
@@ -526,7 +526,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2011</v>
       </c>
@@ -543,7 +543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2008</v>
       </c>
@@ -560,7 +560,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2011</v>
       </c>
@@ -577,7 +577,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2009</v>
       </c>
@@ -594,7 +594,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2008</v>
       </c>
@@ -611,7 +611,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2008</v>
       </c>
@@ -628,7 +628,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2011</v>
       </c>
@@ -645,7 +645,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2011</v>
       </c>
@@ -662,7 +662,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2008</v>
       </c>
@@ -679,7 +679,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2011</v>
       </c>
@@ -696,7 +696,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2008</v>
       </c>
@@ -710,6 +710,23 @@
         <v>2</v>
       </c>
       <c r="E16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2011</v>
+      </c>
+      <c r="B17">
+        <v>40928</v>
+      </c>
+      <c r="C17">
+        <v>46236</v>
+      </c>
+      <c r="D17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -726,9 +743,9 @@
       <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>2011</v>
       </c>
@@ -745,7 +762,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2013</v>
       </c>
